--- a/FusionAutomation/src/Files/OR.xlsx
+++ b/FusionAutomation/src/Files/OR.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="672">
   <si>
     <t>test</t>
   </si>
@@ -1987,9 +1987,6 @@
     <t>xGmailDeleteAppSettings</t>
   </si>
   <si>
-    <t>//option[contains(@id,'%s')]</t>
-  </si>
-  <si>
     <t>xAttachment</t>
   </si>
   <si>
@@ -2012,6 +2009,39 @@
   </si>
   <si>
     <t>//div[@data-tooltip='Edit contact' and @aria-describedby='contactName']//following-sibling::div[@data-tooltip='More actions']</t>
+  </si>
+  <si>
+    <t>//div[text()='%s']</t>
+  </si>
+  <si>
+    <t>(//*[contains(text(),'Custom...')])[2]</t>
+  </si>
+  <si>
+    <t>//option[text()='%s']</t>
+  </si>
+  <si>
+    <t>//span[text()='Allow']</t>
+  </si>
+  <si>
+    <t>//div[@aria-label='Options for %s']</t>
+  </si>
+  <si>
+    <t>xNewDeleteActionBtn</t>
+  </si>
+  <si>
+    <t>//span[text()='Save']//ancestor::div[contains(@id,'r21')]//tr[1]//descendant::span[text()='Actions']</t>
+  </si>
+  <si>
+    <t>xAdvancedLink</t>
+  </si>
+  <si>
+    <t>xproceedToOscLink</t>
+  </si>
+  <si>
+    <t>//a[text()='Advanced']</t>
+  </si>
+  <si>
+    <t>//a[text()='Go to OSC for GMail Integration (unsafe)']</t>
   </si>
 </sst>
 </file>
@@ -2061,11 +2091,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2467,10 +2500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="B332" sqref="B332"/>
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="B334" sqref="B334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3556,7 +3589,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>661</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3637,7 @@
         <v>146</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>664</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3877,7 @@
         <v>426</v>
       </c>
       <c r="B171" t="s">
-        <v>427</v>
+        <v>662</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,7 +4661,7 @@
         <v>156</v>
       </c>
       <c r="B269" t="s">
-        <v>157</v>
+        <v>313</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4636,7 +4669,7 @@
         <v>158</v>
       </c>
       <c r="B270" t="s">
-        <v>159</v>
+        <v>665</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4940,7 +4973,7 @@
         <v>618</v>
       </c>
       <c r="B308" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -5073,34 +5106,58 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>653</v>
+      </c>
+      <c r="B325" t="s">
         <v>654</v>
-      </c>
-      <c r="B325" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
+        <v>655</v>
+      </c>
+      <c r="B326" t="s">
         <v>656</v>
-      </c>
-      <c r="B326" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B327" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>658</v>
+      </c>
+      <c r="B328" t="s">
         <v>659</v>
       </c>
-      <c r="B328" t="s">
-        <v>660</v>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>666</v>
+      </c>
+      <c r="B329" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>668</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>669</v>
+      </c>
+      <c r="B331" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>
